--- a/CETC/ExcelFile/faultName.xlsx
+++ b/CETC/ExcelFile/faultName.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,102 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>故障14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>故障10-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +71,102 @@
   </si>
   <si>
     <t>故障12-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -985,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
